--- a/EMLS 129R/cover letter/cover letter.xlsx
+++ b/EMLS 129R/cover letter/cover letter.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{183BB3C9-FFE6-409D-856A-3DBA7BF56F4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274D667-22A7-4455-A261-427AA7D62E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -43,261 +43,271 @@
     <t>additional info</t>
   </si>
   <si>
+    <t>Concord</t>
+  </si>
+  <si>
+    <t>cover letter</t>
+  </si>
+  <si>
+    <t>server, dl, cloud</t>
+  </si>
+  <si>
+    <t>Software Developer  </t>
+  </si>
+  <si>
+    <t>Karos Health</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>network, cpp, java</t>
+  </si>
+  <si>
+    <t>Evertz Microsystems Ltd</t>
+  </si>
+  <si>
+    <t>cover letter (nice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web, server, cpp </t>
+  </si>
+  <si>
+    <t>0365205 TOR - Information Systems Co-op: Software Developer/Project Coordinator  </t>
+  </si>
+  <si>
+    <t>Manulife Financial</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>apply online, cover letter</t>
+  </si>
+  <si>
+    <t>web, sql, java</t>
+  </si>
+  <si>
+    <t>Associate Programmer (Server) Co-op  </t>
+  </si>
+  <si>
+    <t>Relic Entertainment</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>cover letter (game)</t>
+  </si>
+  <si>
+    <t>cpp, sql, java, game</t>
+  </si>
+  <si>
+    <t>Winter 2019- Research and Development Trainee in Electrical Engineering, Computer Science/Engineering  </t>
+  </si>
+  <si>
+    <t>Innovation Science and Economic Development Canada</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>cpp, java, sql, network</t>
+  </si>
+  <si>
+    <t>Software Engineer  </t>
+  </si>
+  <si>
+    <t>Zeitspace Inc</t>
+  </si>
+  <si>
+    <t>Kitchener</t>
+  </si>
+  <si>
+    <t>go, web, mobile</t>
+  </si>
+  <si>
+    <t>Software Engineering Developer  </t>
+  </si>
+  <si>
+    <t>ZTR Control Systems</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>0, cover letter</t>
+  </si>
+  <si>
+    <t>cpp, network</t>
+  </si>
+  <si>
+    <t>Network Design  </t>
+  </si>
+  <si>
+    <t>Thales Canada</t>
+  </si>
+  <si>
+    <t>cover letter together with resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network, web, </t>
+  </si>
+  <si>
+    <t>38563-Velocity Program  </t>
+  </si>
+  <si>
+    <t>Scotiabank</t>
+  </si>
+  <si>
+    <t>cover letter, apply online (nice)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>qualification #2</t>
+  </si>
+  <si>
+    <t>qualification #3</t>
+  </si>
+  <si>
+    <t>qualification #1</t>
+  </si>
+  <si>
+    <t>qualification #4</t>
+  </si>
+  <si>
+    <t>highly skill in designing, testing and developing software</t>
+  </si>
+  <si>
+    <t>qualification #5</t>
+  </si>
+  <si>
+    <t>qualification #6</t>
+  </si>
+  <si>
+    <t>qualification #7</t>
+  </si>
+  <si>
+    <t>qualification #8</t>
+  </si>
+  <si>
+    <t>qualification #9</t>
+  </si>
+  <si>
+    <t>qualification #10</t>
+  </si>
+  <si>
+    <t>qualification #11</t>
+  </si>
+  <si>
+    <t>qualification #12</t>
+  </si>
+  <si>
+    <t>Critical Thinking and Problem Solving skill</t>
+  </si>
+  <si>
+    <t>knowledge of developing client-server system and HTTP host</t>
+  </si>
+  <si>
+    <t>knowledge of  network protocols such as TCP/IP and HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> experience of developing client-server system and HTTP host</t>
+  </si>
+  <si>
+    <t>Development experience with  C++, Java, python, SQL, JavaScript and HTML</t>
+  </si>
+  <si>
+    <t>Strong motivate to accomplish goals through means of learning new and complex concepts</t>
+  </si>
+  <si>
+    <t>3 month work experience in developing software in a network security company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 months coop</t>
+  </si>
+  <si>
+    <t>strong interest in game developing</t>
+  </si>
+  <si>
+    <t>experience with C++, java and SQL</t>
+  </si>
+  <si>
+    <t>experience with C++ and python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience with Java, C++, python, HTML and CSS </t>
+  </si>
+  <si>
+    <t>Database design experience with MySQL and SQL server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 month experience with Go developing </t>
+  </si>
+  <si>
+    <t>Experience with Git and fluent with Github</t>
+  </si>
+  <si>
+    <t>experience with C++</t>
+  </si>
+  <si>
+    <t>knowledge of  network protocols such as TCP/IP, UDP and HTTP</t>
+  </si>
+  <si>
+    <t>Experience with Linux Operating Systems</t>
+  </si>
+  <si>
+    <t>Web development experience with HTML, jquery, JavaScript and CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build several side projects </t>
+  </si>
+  <si>
+    <t>experience with Go, Java, C/C++, SQL, HTML, CSS, Python, JavaScript and LaTex</t>
+  </si>
+  <si>
+    <t>3 months experience of developing software and webpages</t>
+  </si>
+  <si>
+    <t>AirGate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Engineering Intern - Cloud Solutions  </t>
-  </si>
-  <si>
-    <t>AirGate</t>
-  </si>
-  <si>
-    <t>Concord</t>
-  </si>
-  <si>
-    <t>cover letter</t>
-  </si>
-  <si>
-    <t>server, dl, cloud</t>
-  </si>
-  <si>
-    <t>Software Developer  </t>
-  </si>
-  <si>
-    <t>Karos Health</t>
-  </si>
-  <si>
-    <t>Waterloo</t>
-  </si>
-  <si>
-    <t>network, cpp, java</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorouth understanding of machine learning and data optimization</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 month work experience in developing client-server system and HTTP host</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Software Design Engineering (Burlington)  </t>
-  </si>
-  <si>
-    <t>Evertz Microsystems Ltd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Burlington</t>
-  </si>
-  <si>
-    <t>cover letter (nice)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web, server, cpp </t>
-  </si>
-  <si>
-    <t>0365205 TOR - Information Systems Co-op: Software Developer/Project Coordinator  </t>
-  </si>
-  <si>
-    <t>Manulife Financial</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>apply online, cover letter</t>
-  </si>
-  <si>
-    <t>web, sql, java</t>
-  </si>
-  <si>
-    <t>Associate Programmer (Server) Co-op  </t>
-  </si>
-  <si>
-    <t>Relic Entertainment</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
-    <t>cover letter (game)</t>
-  </si>
-  <si>
-    <t>cpp, sql, java, game</t>
-  </si>
-  <si>
-    <t>Winter 2019- Research and Development Trainee in Electrical Engineering, Computer Science/Engineering  </t>
-  </si>
-  <si>
-    <t>Innovation Science and Economic Development Canada</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>cpp, java, sql, network</t>
-  </si>
-  <si>
-    <t>Software Engineer  </t>
-  </si>
-  <si>
-    <t>Zeitspace Inc</t>
-  </si>
-  <si>
-    <t>Kitchener</t>
-  </si>
-  <si>
-    <t>go, web, mobile</t>
-  </si>
-  <si>
-    <t>Software Engineering Developer  </t>
-  </si>
-  <si>
-    <t>ZTR Control Systems</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>0, cover letter</t>
-  </si>
-  <si>
-    <t>cpp, network</t>
-  </si>
-  <si>
-    <t>Network Design  </t>
-  </si>
-  <si>
-    <t>Thales Canada</t>
-  </si>
-  <si>
-    <t>cover letter together with resume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network, web, </t>
-  </si>
-  <si>
-    <t>38563-Velocity Program  </t>
-  </si>
-  <si>
-    <t>Scotiabank</t>
-  </si>
-  <si>
-    <t>cover letter, apply online (nice)</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>qualification #2</t>
-  </si>
-  <si>
-    <t>qualification #3</t>
-  </si>
-  <si>
-    <t>qualification #1</t>
-  </si>
-  <si>
-    <t>qualification #4</t>
-  </si>
-  <si>
-    <t>highly skill in designing, testing and developing software</t>
-  </si>
-  <si>
-    <t>qualification #5</t>
-  </si>
-  <si>
-    <t>qualification #6</t>
-  </si>
-  <si>
-    <t>qualification #7</t>
-  </si>
-  <si>
-    <t>qualification #8</t>
-  </si>
-  <si>
-    <t>qualification #9</t>
-  </si>
-  <si>
-    <t>qualification #10</t>
-  </si>
-  <si>
-    <t>qualification #11</t>
-  </si>
-  <si>
-    <t>qualification #12</t>
-  </si>
-  <si>
-    <t>Critical Thinking and Problem Solving skill</t>
-  </si>
-  <si>
-    <t>knowledge of developing client-server system and HTTP host</t>
-  </si>
-  <si>
-    <t>thorouth understanding of machine learning and data optimization</t>
-  </si>
-  <si>
-    <t>knowledge of  network protocols such as TCP/IP and HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> experience of developing client-server system and HTTP host</t>
-  </si>
-  <si>
-    <t>Development experience with  C++, Java, python, SQL, JavaScript and HTML</t>
-  </si>
-  <si>
-    <t>Strong motivate to accomplish goals through means of learning new and complex concepts</t>
-  </si>
-  <si>
-    <t>3 month work experience in developing client-server system and HTTP host</t>
-  </si>
-  <si>
-    <t>3 month work experience in developing software in a network security company</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 months coop</t>
-  </si>
-  <si>
-    <t>strong interest in game developing</t>
-  </si>
-  <si>
-    <t>experience with C++, java and SQL</t>
-  </si>
-  <si>
-    <t>experience with C++ and python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experience with Java, C++, python, HTML and CSS </t>
-  </si>
-  <si>
-    <t>Database design experience with MySQL and SQL server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 month experience with Go developing </t>
-  </si>
-  <si>
-    <t>Experience with Git and fluent with Github</t>
-  </si>
-  <si>
-    <t>experience with C++</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>knowledge of  network protocols such as TCP/IP, UDP and HTTP</t>
-  </si>
-  <si>
-    <t>Experience with Linux Operating Systems</t>
-  </si>
-  <si>
-    <t>Web development experience with HTML, jquery, JavaScript and CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">build several side projects </t>
-  </si>
-  <si>
-    <t>experience with Go, Java, C/C++, SQL, HTML, CSS, Python, JavaScript and LaTex</t>
-  </si>
-  <si>
-    <t>3 months experience of developing software and webpages</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,7 +315,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,6 +330,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1338,39 +1355,1217 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CD36DC-306C-45FB-8BA3-44A0BAB01401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="762000"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CD36DC-306C-45FB-8BA3-44A0BAB01401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="762000"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998F7DAB-1CB8-4F50-929A-6305BD0CBAD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1135380"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B59612-BB22-49F4-9376-0BBA2648E6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1135380"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB01F38-C977-4256-BC52-14A8499BB7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1325880"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B3F195-22BF-4738-B9C4-1AFA958287A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1699260"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEAC04F-610E-4128-A8BC-35A3082C1762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1251FD9-407B-4528-91F0-7B9C4A2A928E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6DD8A6-10E1-471F-A2F0-C2DEDB1E0345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D9721-5000-47A3-8739-B7F2886A38A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDB9DA0-9670-4DA3-8A2C-842D1305B9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA7AFB3-585D-4464-AEB6-444565E20125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB56643-D1A6-4EAD-80FB-5F25F40B8184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489F3A0A-CE7C-41D0-B0D6-BA244BB36F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2084AD1B-8CBF-4A8A-8A33-0C1CFB4CB9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FDB6F5-BBC5-45F9-B7CD-36115053B9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247D72C3-5F74-49A9-9702-8798C80A18E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E2832C-EC20-4C9C-BADD-C4DB2AB372E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578C7934-26BB-4B60-89D1-2F856260EC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="1889760"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69ED3BA-A421-4BF8-B677-FFCAC6153A52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="2080260"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550AF5E7-CBD7-4192-91FC-6FC4DA1594A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="2080260"/>
           <a:ext cx="137160" cy="137160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1400,63 +2595,125 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD1F10F-0C63-4477-B99F-968782832E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="2080260"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998F7DAB-1CB8-4F50-929A-6305BD0CBAD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1135380"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35E7E69-52E9-42F8-8D3B-A838E051CE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10081260" y="2080260"/>
+          <a:ext cx="137160" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1467,1003 +2724,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B59612-BB22-49F4-9376-0BBA2648E6C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1135380"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB01F38-C977-4256-BC52-14A8499BB7CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1325880"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B3F195-22BF-4738-B9C4-1AFA958287A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1699260"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEAC04F-610E-4128-A8BC-35A3082C1762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1251FD9-407B-4528-91F0-7B9C4A2A928E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6DD8A6-10E1-471F-A2F0-C2DEDB1E0345}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D9721-5000-47A3-8739-B7F2886A38A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDB9DA0-9670-4DA3-8A2C-842D1305B9BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA7AFB3-585D-4464-AEB6-444565E20125}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB56643-D1A6-4EAD-80FB-5F25F40B8184}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489F3A0A-CE7C-41D0-B0D6-BA244BB36F42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2084AD1B-8CBF-4A8A-8A33-0C1CFB4CB9B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FDB6F5-BBC5-45F9-B7CD-36115053B9B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247D72C3-5F74-49A9-9702-8798C80A18E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E2832C-EC20-4C9C-BADD-C4DB2AB372E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578C7934-26BB-4B60-89D1-2F856260EC8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="1889760"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69ED3BA-A421-4BF8-B677-FFCAC6153A52}"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="Delete Button">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95DC61B-FCEF-48C7-8EE8-600C97EAA070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,261 +2775,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550AF5E7-CBD7-4192-91FC-6FC4DA1594A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="2080260"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD1F10F-0C63-4477-B99F-968782832E97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="2080260"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35E7E69-52E9-42F8-8D3B-A838E051CE71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="2080260"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="Delete Button">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95DC61B-FCEF-48C7-8EE8-600C97EAA070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10081260" y="2080260"/>
-          <a:ext cx="137160" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4138,29 +4155,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="3" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="63.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.08203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="52" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" customWidth="1"/>
-    <col min="14" max="14" width="82.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.9140625" customWidth="1"/>
+    <col min="14" max="14" width="82.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4183,429 +4200,430 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>78507</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>79072</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>81768</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="28.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>81830</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>82228</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>82234</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>82532</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>84010</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>85465</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>86067</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="javascript:void(0)" xr:uid="{DE728A35-F1B1-4ED0-9ECA-92F447CE649C}"/>
     <hyperlink ref="B1" r:id="rId2" display="javascript:void(0)" xr:uid="{0618FA87-C567-421F-A69C-E3A42F25774F}"/>
